--- a/stock-check/files/stock.xlsx
+++ b/stock-check/files/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D667C4A-8B11-4BFC-BEB6-E9E2E476C510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC539E32-7563-48AF-AE7B-7257E0C2E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="1983">
   <si>
     <t>Categoria</t>
   </si>
@@ -5798,6 +5798,69 @@
   </si>
   <si>
     <t>2855520SUMAAIN</t>
+  </si>
+  <si>
+    <t>NEUMATICO 215/60R17 NEXEN CP672</t>
+  </si>
+  <si>
+    <t>2156017NXCP672</t>
+  </si>
+  <si>
+    <t>NEUMATICO 205/65R15 NEXEN CP672</t>
+  </si>
+  <si>
+    <t>2056515NXCP672</t>
+  </si>
+  <si>
+    <t>NEUMATICO 195/60R15 NEXEN NPRIZ GX</t>
+  </si>
+  <si>
+    <t>1956015NXGX</t>
+  </si>
+  <si>
+    <t>NEUMATICO 185/65R15 NEXEN CP672</t>
+  </si>
+  <si>
+    <t>1856515NXCP672</t>
+  </si>
+  <si>
+    <t>NEXNE</t>
+  </si>
+  <si>
+    <t>NEUMATICO 225/40R18 NEXEN CP672</t>
+  </si>
+  <si>
+    <t>2254018NXCP672</t>
+  </si>
+  <si>
+    <t>NEUMATICO 145/70R12 SONIX ECOPRO 99</t>
+  </si>
+  <si>
+    <t>1457012SNEC99</t>
+  </si>
+  <si>
+    <t>NEUMATICO 245/70R16 DUNLOP AT3</t>
+  </si>
+  <si>
+    <t>2457016DUNLAT3</t>
+  </si>
+  <si>
+    <t>AT3</t>
+  </si>
+  <si>
+    <t>NEUMATICO 305/70R16 ROADMARCH MT</t>
+  </si>
+  <si>
+    <t>3057016ROADMMT</t>
+  </si>
+  <si>
+    <t>NEUMATICO 285/65R18 FALKEN AT3W</t>
+  </si>
+  <si>
+    <t>2856518FKAT3W</t>
+  </si>
+  <si>
+    <t>ET3W</t>
   </si>
   <si>
     <t>Utiliza esta pantalla para guiarte en el llenado de datos. Aquí puedes ver los tipos de datos requeridos, qué datos están permitidos, y cómo debes completarlos.</t>
@@ -6321,16 +6384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G784"/>
+  <dimension ref="A1:G793"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
@@ -6421,7 +6484,7 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -6443,6 +6506,9 @@
       <c r="E5" t="s">
         <v>43</v>
       </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
       <c r="G5">
         <v>4</v>
       </c>
@@ -7053,7 +7119,7 @@
         <v>59</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>17</v>
@@ -7215,6 +7281,9 @@
       <c r="E43" t="s">
         <v>43</v>
       </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7521,7 +7590,7 @@
         <v>199</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -7624,7 +7693,7 @@
         <v>6</v>
       </c>
       <c r="G64">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -7661,10 +7730,10 @@
         <v>66</v>
       </c>
       <c r="F66">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -7866,6 +7935,9 @@
       <c r="F76">
         <v>4</v>
       </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -7938,7 +8010,7 @@
         <v>66</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -8066,7 +8138,7 @@
         <v>275</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -8088,9 +8160,6 @@
       <c r="F88">
         <v>2</v>
       </c>
-      <c r="G88">
-        <v>4</v>
-      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -8145,6 +8214,9 @@
       <c r="E91" t="s">
         <v>66</v>
       </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
       <c r="G91">
         <v>2</v>
       </c>
@@ -8308,9 +8380,6 @@
       <c r="F99">
         <v>5</v>
       </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -8474,6 +8543,9 @@
       <c r="E107" t="s">
         <v>324</v>
       </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -8632,7 +8704,7 @@
         <v>66</v>
       </c>
       <c r="F115">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G115">
         <v>8</v>
@@ -8754,6 +8826,9 @@
       <c r="E121" t="s">
         <v>362</v>
       </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -8818,7 +8893,7 @@
         <v>66</v>
       </c>
       <c r="F124">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -9231,6 +9306,9 @@
       <c r="F145">
         <v>4</v>
       </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -9292,10 +9370,10 @@
         <v>66</v>
       </c>
       <c r="F148">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G148">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -9525,6 +9603,9 @@
       <c r="E160" t="s">
         <v>199</v>
       </c>
+      <c r="F160">
+        <v>12</v>
+      </c>
       <c r="G160">
         <v>4</v>
       </c>
@@ -9566,7 +9647,7 @@
         <v>469</v>
       </c>
       <c r="F162">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -9585,6 +9666,9 @@
       <c r="E163" t="s">
         <v>248</v>
       </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -9898,7 +9982,7 @@
         <v>10</v>
       </c>
       <c r="G178">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -10344,7 +10428,7 @@
         <v>25</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -11073,9 +11157,6 @@
       <c r="E238" t="s">
         <v>400</v>
       </c>
-      <c r="F238">
-        <v>4</v>
-      </c>
       <c r="G238">
         <v>2</v>
       </c>
@@ -11248,7 +11329,7 @@
         <v>66</v>
       </c>
       <c r="F247">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G247">
         <v>4</v>
@@ -11384,9 +11465,6 @@
       <c r="E254" t="s">
         <v>66</v>
       </c>
-      <c r="F254">
-        <v>4</v>
-      </c>
       <c r="G254">
         <v>2</v>
       </c>
@@ -11955,6 +12033,9 @@
       <c r="E283" t="s">
         <v>758</v>
       </c>
+      <c r="F283">
+        <v>8</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
@@ -12498,7 +12579,7 @@
         <v>6</v>
       </c>
       <c r="G311">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -12535,10 +12616,10 @@
         <v>831</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G313">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -12609,7 +12690,7 @@
         <v>497</v>
       </c>
       <c r="G317">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -13153,9 +13234,6 @@
       <c r="E345" t="s">
         <v>913</v>
       </c>
-      <c r="G345">
-        <v>3</v>
-      </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -13210,6 +13288,9 @@
       <c r="E348" t="s">
         <v>394</v>
       </c>
+      <c r="F348">
+        <v>8</v>
+      </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
@@ -13633,7 +13714,7 @@
         <v>417</v>
       </c>
       <c r="F370">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -15070,7 +15151,7 @@
         <v>417</v>
       </c>
       <c r="G445">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -16760,6 +16841,9 @@
       <c r="E533" t="s">
         <v>1274</v>
       </c>
+      <c r="F533">
+        <v>4</v>
+      </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
@@ -16858,7 +16942,7 @@
         <v>1368</v>
       </c>
       <c r="G538">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -16935,7 +17019,7 @@
         <v>1145</v>
       </c>
       <c r="F542">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -19290,6 +19374,9 @@
       <c r="E664" t="s">
         <v>935</v>
       </c>
+      <c r="F664">
+        <v>4</v>
+      </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
@@ -19470,6 +19557,9 @@
       <c r="F673">
         <v>2</v>
       </c>
+      <c r="G673">
+        <v>4</v>
+      </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
@@ -19699,7 +19789,7 @@
         <v>4</v>
       </c>
       <c r="G685">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
@@ -19916,6 +20006,9 @@
       <c r="F695">
         <v>4</v>
       </c>
+      <c r="G695">
+        <v>4</v>
+      </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
@@ -20492,6 +20585,9 @@
       <c r="F725">
         <v>4</v>
       </c>
+      <c r="G725">
+        <v>4</v>
+      </c>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
@@ -20629,7 +20725,10 @@
         <v>88</v>
       </c>
       <c r="E733" t="s">
-        <v>859</v>
+        <v>1479</v>
+      </c>
+      <c r="F733">
+        <v>4</v>
       </c>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
@@ -20910,7 +21009,7 @@
         <v>1768</v>
       </c>
       <c r="F749">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
@@ -21103,9 +21202,6 @@
       <c r="D759" t="s">
         <v>160</v>
       </c>
-      <c r="G759">
-        <v>8</v>
-      </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
@@ -21221,7 +21317,7 @@
         <v>4</v>
       </c>
       <c r="G765">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
@@ -21335,7 +21431,7 @@
         <v>1897</v>
       </c>
       <c r="F771">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
@@ -21417,6 +21513,9 @@
       <c r="F775">
         <v>12</v>
       </c>
+      <c r="G775">
+        <v>8</v>
+      </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
@@ -21593,6 +21692,186 @@
       </c>
       <c r="E784" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>25</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D785" t="s">
+        <v>38</v>
+      </c>
+      <c r="E785" t="s">
+        <v>324</v>
+      </c>
+      <c r="G785">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>25</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D786" t="s">
+        <v>38</v>
+      </c>
+      <c r="E786" t="s">
+        <v>324</v>
+      </c>
+      <c r="G786">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>25</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D787" t="s">
+        <v>38</v>
+      </c>
+      <c r="E787" t="s">
+        <v>248</v>
+      </c>
+      <c r="G787">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>25</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E788" t="s">
+        <v>324</v>
+      </c>
+      <c r="G788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>25</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D789" t="s">
+        <v>38</v>
+      </c>
+      <c r="E789" t="s">
+        <v>324</v>
+      </c>
+      <c r="G789">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>25</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D790" t="s">
+        <v>88</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G790">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>25</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D791" t="s">
+        <v>160</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G791">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>25</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D792" t="s">
+        <v>42</v>
+      </c>
+      <c r="E792" t="s">
+        <v>580</v>
+      </c>
+      <c r="G792">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>25</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D793" t="s">
+        <v>116</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G793">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -21619,7 +21898,7 @@
   <sheetData>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1924</v>
+        <v>1945</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -21627,7 +21906,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1925</v>
+        <v>1946</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -21635,16 +21914,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1926</v>
+        <v>1947</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1927</v>
+        <v>1948</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1928</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -21652,13 +21931,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1929</v>
+        <v>1950</v>
       </c>
       <c r="C9" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1931</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -21666,13 +21945,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1932</v>
+        <v>1953</v>
       </c>
       <c r="C10" t="s">
-        <v>1933</v>
+        <v>1954</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1934</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -21680,13 +21959,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1935</v>
+        <v>1956</v>
       </c>
       <c r="C11" t="s">
-        <v>1933</v>
+        <v>1954</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1936</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -21694,13 +21973,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1937</v>
+        <v>1958</v>
       </c>
       <c r="C12" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1931</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -21708,13 +21987,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1938</v>
+        <v>1959</v>
       </c>
       <c r="C13" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1931</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21722,13 +22001,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1939</v>
+        <v>1960</v>
       </c>
       <c r="C14" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1940</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21736,13 +22015,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1941</v>
+        <v>1962</v>
       </c>
       <c r="C15" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1936</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -21750,13 +22029,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1942</v>
+        <v>1963</v>
       </c>
       <c r="C16" t="s">
-        <v>1933</v>
+        <v>1954</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1943</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -21764,13 +22043,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1944</v>
+        <v>1965</v>
       </c>
       <c r="C17" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -21778,13 +22057,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1946</v>
+        <v>1967</v>
       </c>
       <c r="C18" t="s">
-        <v>1933</v>
+        <v>1954</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -21792,13 +22071,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1947</v>
+        <v>1968</v>
       </c>
       <c r="C19" t="s">
-        <v>1933</v>
+        <v>1954</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1948</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -21806,13 +22085,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1949</v>
+        <v>1970</v>
       </c>
       <c r="C20" t="s">
-        <v>1933</v>
+        <v>1954</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -21820,13 +22099,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1950</v>
+        <v>1971</v>
       </c>
       <c r="C21" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -21834,13 +22113,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C22" t="s">
         <v>1951</v>
       </c>
-      <c r="C22" t="s">
-        <v>1930</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21848,13 +22127,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1952</v>
+        <v>1973</v>
       </c>
       <c r="C23" t="s">
-        <v>1933</v>
+        <v>1954</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -21862,13 +22141,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1953</v>
+        <v>1974</v>
       </c>
       <c r="C24" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -21876,13 +22155,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1954</v>
+        <v>1975</v>
       </c>
       <c r="C25" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1931</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -21890,13 +22169,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1955</v>
+        <v>1976</v>
       </c>
       <c r="C26" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1931</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -21904,13 +22183,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1956</v>
+        <v>1977</v>
       </c>
       <c r="C27" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -21918,13 +22197,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1957</v>
+        <v>1978</v>
       </c>
       <c r="C28" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1931</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -21932,13 +22211,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1957</v>
+        <v>1978</v>
       </c>
       <c r="C29" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1931</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -21946,13 +22225,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1957</v>
+        <v>1978</v>
       </c>
       <c r="C30" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1931</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -21960,25 +22239,25 @@
         <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1958</v>
+        <v>1979</v>
       </c>
       <c r="C31" t="s">
-        <v>1959</v>
+        <v>1980</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1960</v>
+        <v>1981</v>
       </c>
       <c r="B32" t="s">
-        <v>1961</v>
+        <v>1982</v>
       </c>
       <c r="C32" t="s">
-        <v>1930</v>
+        <v>1951</v>
       </c>
       <c r="D32" t="s">
-        <v>1945</v>
+        <v>1966</v>
       </c>
     </row>
   </sheetData>

--- a/stock-check/files/stock.xlsx
+++ b/stock-check/files/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC539E32-7563-48AF-AE7B-7257E0C2E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4BE47D-C904-4FE3-8543-EE11E5ECEF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6386,14 +6386,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
@@ -6976,7 +6976,7 @@
         <v>51</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -7261,9 +7261,6 @@
       <c r="E42" t="s">
         <v>108</v>
       </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -7973,7 +7970,7 @@
         <v>252</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -8893,7 +8890,7 @@
         <v>66</v>
       </c>
       <c r="F124">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -9370,7 +9367,7 @@
         <v>66</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -9413,7 +9410,7 @@
         <v>436</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -9433,7 +9430,7 @@
         <v>436</v>
       </c>
       <c r="F151">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -9982,7 +9979,7 @@
         <v>10</v>
       </c>
       <c r="G178">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -10944,7 +10941,7 @@
         <v>275</v>
       </c>
       <c r="F227">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -11328,9 +11325,6 @@
       <c r="E247" t="s">
         <v>66</v>
       </c>
-      <c r="F247">
-        <v>6</v>
-      </c>
       <c r="G247">
         <v>4</v>
       </c>
@@ -14381,9 +14375,6 @@
       <c r="E404" t="s">
         <v>1063</v>
       </c>
-      <c r="F404">
-        <v>2</v>
-      </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
@@ -17039,7 +17030,7 @@
         <v>1104</v>
       </c>
       <c r="F543">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G543">
         <v>4</v>
@@ -19230,7 +19221,7 @@
         <v>1647</v>
       </c>
       <c r="F656">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
@@ -19315,7 +19306,7 @@
         <v>874</v>
       </c>
       <c r="F661">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
@@ -19895,7 +19886,7 @@
         <v>59</v>
       </c>
       <c r="F690">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G690">
         <v>11</v>
@@ -21511,7 +21502,7 @@
         <v>66</v>
       </c>
       <c r="F775">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G775">
         <v>8</v>
